--- a/Nina/gebieden_groot.xlsx
+++ b/Nina/gebieden_groot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nina\KI\DataVis\kunstmatigestroom\Nina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB6CE44-77CD-4C89-ACE1-39DA1B225535}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CD789-B254-4EC7-AB38-E22B7D2E6084}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,31 +109,31 @@
     <t>gemiddelde woningbezetting</t>
   </si>
   <si>
-    <t>A Centrum</t>
-  </si>
-  <si>
-    <t>E West</t>
-  </si>
-  <si>
-    <t>F Nieuw-West</t>
-  </si>
-  <si>
-    <t>K Zuid</t>
-  </si>
-  <si>
-    <t>M Oost</t>
-  </si>
-  <si>
-    <t>N Noord</t>
-  </si>
-  <si>
-    <t>T Zuidoost</t>
-  </si>
-  <si>
-    <t>ZX99 Westpoort</t>
-  </si>
-  <si>
-    <t>ASD Amsterdam</t>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Centrum</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Nieuw-West</t>
+  </si>
+  <si>
+    <t>Zuid</t>
+  </si>
+  <si>
+    <t>Oost</t>
+  </si>
+  <si>
+    <t>Noord</t>
+  </si>
+  <si>
+    <t>Zuidoost</t>
+  </si>
+  <si>
+    <t>Westpoort</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>12</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>3</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>16</v>
